--- a/MATRIKS ME.xlsx
+++ b/MATRIKS ME.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BCAF\ME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342649DA-7CBB-4DF6-8F69-67D64CF3EEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DEA3BC-43A8-4922-8358-C55DA6D1290B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{89A13EE3-58F8-4F89-B00D-5A5D504761BF}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="17892" windowHeight="12336" xr2:uid="{89A13EE3-58F8-4F89-B00D-5A5D504761BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Initiation" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
   <si>
     <t>No</t>
   </si>
@@ -68,36 +68,21 @@
     <t>Single</t>
   </si>
   <si>
-    <t>New</t>
-  </si>
-  <si>
     <t>Tidak</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>KodePos</t>
   </si>
   <si>
-    <t>15415</t>
-  </si>
-  <si>
     <t>NIK</t>
   </si>
   <si>
-    <t>3175070101909999</t>
-  </si>
-  <si>
     <t>NamaKonsumen</t>
   </si>
   <si>
-    <t>DATA AWC SATU</t>
-  </si>
-  <si>
     <t>TahunDOB</t>
   </si>
   <si>
@@ -213,6 +198,48 @@
   </si>
   <si>
     <t>700000</t>
+  </si>
+  <si>
+    <t>Used</t>
+  </si>
+  <si>
+    <t>Data Inv 1</t>
+  </si>
+  <si>
+    <t>3506042602671000</t>
+  </si>
+  <si>
+    <t>Alamat</t>
+  </si>
+  <si>
+    <t>JL TESTING 1</t>
+  </si>
+  <si>
+    <t>Provinsi</t>
+  </si>
+  <si>
+    <t>Banten</t>
+  </si>
+  <si>
+    <t>Kota</t>
+  </si>
+  <si>
+    <t>Tangerang Selatan</t>
+  </si>
+  <si>
+    <t>Kecamatan</t>
+  </si>
+  <si>
+    <t>Kelurahan</t>
+  </si>
+  <si>
+    <t>Ciputat</t>
+  </si>
+  <si>
+    <t>TempatLahir</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
   </si>
 </sst>
 </file>
@@ -628,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F566F04A-383B-49EC-AAFB-6B5C3D6B532C}">
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -640,26 +667,29 @@
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.21875" customWidth="1"/>
     <col min="11" max="11" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.33203125" customWidth="1"/>
-    <col min="27" max="27" width="13" customWidth="1"/>
-    <col min="28" max="28" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.33203125" customWidth="1"/>
+    <col min="16" max="18" width="19.88671875" customWidth="1"/>
+    <col min="19" max="19" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.33203125" customWidth="1"/>
+    <col min="33" max="33" width="13" customWidth="1"/>
+    <col min="34" max="34" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -685,76 +715,94 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>57</v>
+      <c r="AK1" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -765,93 +813,111 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
       </c>
       <c r="G2" t="s">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>10000</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="S2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="3" t="s">
+      <c r="W2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="Z2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC2" t="s">
         <v>37</v>
       </c>
-      <c r="U2" t="s">
+      <c r="AD2" t="s">
         <v>39</v>
       </c>
-      <c r="V2" t="s">
-        <v>45</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="AE2" t="s">
         <v>42</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AF2" t="s">
         <v>44</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AG2" s="3">
+        <v>800000000</v>
+      </c>
+      <c r="AH2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AI2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AA2" s="3">
-        <v>800000000</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>58</v>
+      <c r="AJ2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" xr:uid="{D85B1C92-914E-4C10-A288-C781B20BE67F}"/>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{D85B1C92-914E-4C10-A288-C781B20BE67F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/MATRIKS ME.xlsx
+++ b/MATRIKS ME.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BCAF\ME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DEA3BC-43A8-4922-8358-C55DA6D1290B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C80163D-E307-4ABB-8125-31D07E013C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="17892" windowHeight="12336" xr2:uid="{89A13EE3-58F8-4F89-B00D-5A5D504761BF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{89A13EE3-58F8-4F89-B00D-5A5D504761BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Initiation" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="186">
   <si>
     <t>No</t>
   </si>
@@ -56,9 +57,6 @@
     <t>Penjamin</t>
   </si>
   <si>
-    <t>Cluster</t>
-  </si>
-  <si>
     <t>TopUp</t>
   </si>
   <si>
@@ -71,9 +69,6 @@
     <t>Tidak</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>KodePos</t>
   </si>
   <si>
@@ -110,9 +105,6 @@
     <t>HandphoneNumber</t>
   </si>
   <si>
-    <t>DATAAWCSATU@GMAIL.COM</t>
-  </si>
-  <si>
     <t>0838</t>
   </si>
   <si>
@@ -203,12 +195,6 @@
     <t>Used</t>
   </si>
   <si>
-    <t>Data Inv 1</t>
-  </si>
-  <si>
-    <t>3506042602671000</t>
-  </si>
-  <si>
     <t>Alamat</t>
   </si>
   <si>
@@ -240,13 +226,382 @@
   </si>
   <si>
     <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Segmentasi</t>
+  </si>
+  <si>
+    <t>HNWI</t>
+  </si>
+  <si>
+    <t>Membership</t>
+  </si>
+  <si>
+    <t>Solitaire</t>
+  </si>
+  <si>
+    <t>JenisDebitur</t>
+  </si>
+  <si>
+    <t>Korporasi</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>3266270708091001</t>
+  </si>
+  <si>
+    <t>Mass Solitaire Korporasi</t>
+  </si>
+  <si>
+    <t>JL TESTING 2</t>
+  </si>
+  <si>
+    <t>quality_assurance@bcafinance.id</t>
+  </si>
+  <si>
+    <t>123456789123457</t>
+  </si>
+  <si>
+    <t>Mass Solitaire Komersial</t>
+  </si>
+  <si>
+    <t>SME</t>
+  </si>
+  <si>
+    <t>KUK/KUR</t>
+  </si>
+  <si>
+    <t>Non Debitur</t>
+  </si>
+  <si>
+    <t>Prioritas</t>
+  </si>
+  <si>
+    <t>Reguler</t>
+  </si>
+  <si>
+    <t>Komersial</t>
+  </si>
+  <si>
+    <t>Tidak Tersegmentasi</t>
+  </si>
+  <si>
+    <t>Affluent</t>
+  </si>
+  <si>
+    <t>Uppermass</t>
+  </si>
+  <si>
+    <t>3266270708091002</t>
+  </si>
+  <si>
+    <t>3266270708091003</t>
+  </si>
+  <si>
+    <t>3266270708091004</t>
+  </si>
+  <si>
+    <t>3266270708091005</t>
+  </si>
+  <si>
+    <t>3266270708091006</t>
+  </si>
+  <si>
+    <t>3266270708091007</t>
+  </si>
+  <si>
+    <t>3266270708091008</t>
+  </si>
+  <si>
+    <t>3266270708091009</t>
+  </si>
+  <si>
+    <t>3266270708091010</t>
+  </si>
+  <si>
+    <t>3266270708091011</t>
+  </si>
+  <si>
+    <t>3266270708091012</t>
+  </si>
+  <si>
+    <t>3266270708091013</t>
+  </si>
+  <si>
+    <t>3266270708091014</t>
+  </si>
+  <si>
+    <t>3266270708091015</t>
+  </si>
+  <si>
+    <t>3266270708091016</t>
+  </si>
+  <si>
+    <t>3266270708091017</t>
+  </si>
+  <si>
+    <t>3266270708091018</t>
+  </si>
+  <si>
+    <t>3266270708091019</t>
+  </si>
+  <si>
+    <t>3266270708091020</t>
+  </si>
+  <si>
+    <t>3266270708091021</t>
+  </si>
+  <si>
+    <t>3266270708091022</t>
+  </si>
+  <si>
+    <t>3266270708091023</t>
+  </si>
+  <si>
+    <t>3266270708091024</t>
+  </si>
+  <si>
+    <t>3266270708091025</t>
+  </si>
+  <si>
+    <t>3266270708091026</t>
+  </si>
+  <si>
+    <t>3266270708091027</t>
+  </si>
+  <si>
+    <t>3266270708091028</t>
+  </si>
+  <si>
+    <t>3266270708091029</t>
+  </si>
+  <si>
+    <t>3266270708091030</t>
+  </si>
+  <si>
+    <t>3266270708091031</t>
+  </si>
+  <si>
+    <t>3266270708091032</t>
+  </si>
+  <si>
+    <t>3266270708091033</t>
+  </si>
+  <si>
+    <t>3266270708091034</t>
+  </si>
+  <si>
+    <t>3266270708091035</t>
+  </si>
+  <si>
+    <t>3266270708091036</t>
+  </si>
+  <si>
+    <t>Mass Solitaire SME</t>
+  </si>
+  <si>
+    <t>Mass Solitaire KUK/KUR</t>
+  </si>
+  <si>
+    <t>Mass Solitaire Non Debitur</t>
+  </si>
+  <si>
+    <t>Mass Prioritas Korporasi</t>
+  </si>
+  <si>
+    <t>Mass Prioritas Komersial</t>
+  </si>
+  <si>
+    <t>Mass Reguler Komersial</t>
+  </si>
+  <si>
+    <t>Tidak Tersegmentasi Solitaire Korporasi</t>
+  </si>
+  <si>
+    <t>Tidak Tersegmentasi Solitaire Komersial</t>
+  </si>
+  <si>
+    <t>Tidak Tersegmentasi Solitaire SME</t>
+  </si>
+  <si>
+    <t>Tidak Tersegmentasi Solitaire KUK/KUR</t>
+  </si>
+  <si>
+    <t>Tidak Tersegmentasi Solitaire Non Debitur</t>
+  </si>
+  <si>
+    <t>Tidak Tersegmentasi Prioritas Korporasi</t>
+  </si>
+  <si>
+    <t>Tidak Tersegmentasi Prioritas Komersial</t>
+  </si>
+  <si>
+    <t>Tidak Tersegmentasi Prioritas SME</t>
+  </si>
+  <si>
+    <t>Tidak Tersegmentasi Prioritas KUK/KUR</t>
+  </si>
+  <si>
+    <t>Tidak Tersegmentasi Prioritas Non Debitur</t>
+  </si>
+  <si>
+    <t>Tidak Tersegmentasi Reguler Korporasi</t>
+  </si>
+  <si>
+    <t>Tidak Tersegmentasi Reguler Komersial</t>
+  </si>
+  <si>
+    <t>Tidak Tersegmentasi Reguler SME</t>
+  </si>
+  <si>
+    <t>Mass Prioritas SME</t>
+  </si>
+  <si>
+    <t>Mass Prioritas KUK/KUR</t>
+  </si>
+  <si>
+    <t>Mass Prioritas Non Debitur</t>
+  </si>
+  <si>
+    <t>Mass Reguler Korporasi</t>
+  </si>
+  <si>
+    <t>Mass Reguler SME</t>
+  </si>
+  <si>
+    <t>HNWI Reguler KUK/KUR</t>
+  </si>
+  <si>
+    <t>HNWI Reguler Non Debitur</t>
+  </si>
+  <si>
+    <t>Affluent Reguler KUK/KUR</t>
+  </si>
+  <si>
+    <t>Affluent Reguler Non Debitur</t>
+  </si>
+  <si>
+    <t>Uppermass Reguler KUK/KUR</t>
+  </si>
+  <si>
+    <t>Uppermass Reguler Non Debitur</t>
+  </si>
+  <si>
+    <t>Mass Reguler KUK/KUR</t>
+  </si>
+  <si>
+    <t>Mass Reguler Non Debitur</t>
+  </si>
+  <si>
+    <t>Tidak Tersegmentasi Reguler KUK/KUR</t>
+  </si>
+  <si>
+    <t>Tidak Tersegmentasi  Reguler Non Debitur</t>
+  </si>
+  <si>
+    <t>JL TESTING 3</t>
+  </si>
+  <si>
+    <t>JL TESTING 4</t>
+  </si>
+  <si>
+    <t>JL TESTING 5</t>
+  </si>
+  <si>
+    <t>JL TESTING 6</t>
+  </si>
+  <si>
+    <t>JL TESTING 7</t>
+  </si>
+  <si>
+    <t>JL TESTING 8</t>
+  </si>
+  <si>
+    <t>JL TESTING 9</t>
+  </si>
+  <si>
+    <t>JL TESTING 10</t>
+  </si>
+  <si>
+    <t>JL TESTING 11</t>
+  </si>
+  <si>
+    <t>JL TESTING 12</t>
+  </si>
+  <si>
+    <t>JL TESTING 13</t>
+  </si>
+  <si>
+    <t>JL TESTING 14</t>
+  </si>
+  <si>
+    <t>JL TESTING 15</t>
+  </si>
+  <si>
+    <t>JL TESTING 16</t>
+  </si>
+  <si>
+    <t>JL TESTING 17</t>
+  </si>
+  <si>
+    <t>JL TESTING 18</t>
+  </si>
+  <si>
+    <t>JL TESTING 19</t>
+  </si>
+  <si>
+    <t>JL TESTING 20</t>
+  </si>
+  <si>
+    <t>JL TESTING 21</t>
+  </si>
+  <si>
+    <t>JL TESTING 22</t>
+  </si>
+  <si>
+    <t>JL TESTING 23</t>
+  </si>
+  <si>
+    <t>JL TESTING 24</t>
+  </si>
+  <si>
+    <t>JL TESTING 25</t>
+  </si>
+  <si>
+    <t>JL TESTING 26</t>
+  </si>
+  <si>
+    <t>JL TESTING 27</t>
+  </si>
+  <si>
+    <t>JL TESTING 28</t>
+  </si>
+  <si>
+    <t>JL TESTING 29</t>
+  </si>
+  <si>
+    <t>JL TESTING 30</t>
+  </si>
+  <si>
+    <t>JL TESTING 31</t>
+  </si>
+  <si>
+    <t>AGYA</t>
+  </si>
+  <si>
+    <t>TOYOTA</t>
+  </si>
+  <si>
+    <t>AGYA 1.0 E A/T</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +621,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -655,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F566F04A-383B-49EC-AAFB-6B5C3D6B532C}">
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AM15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -667,29 +1028,32 @@
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.21875" customWidth="1"/>
-    <col min="11" max="11" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.33203125" customWidth="1"/>
-    <col min="16" max="18" width="19.88671875" customWidth="1"/>
-    <col min="19" max="19" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.33203125" customWidth="1"/>
-    <col min="33" max="33" width="13" customWidth="1"/>
-    <col min="34" max="34" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" customWidth="1"/>
+    <col min="13" max="13" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.33203125" customWidth="1"/>
+    <col min="18" max="20" width="19.88671875" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="32.109375" customWidth="1"/>
+    <col min="24" max="24" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.6640625" customWidth="1"/>
+    <col min="34" max="34" width="12.33203125" customWidth="1"/>
+    <col min="35" max="35" width="13" customWidth="1"/>
+    <col min="36" max="36" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -706,103 +1070,1808 @@
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="M2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="S2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U2" t="s">
+        <v>16</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>185</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>800000000</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M3" t="s">
+        <v>136</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>185</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>800000000</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="M4" t="s">
+        <v>137</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U4" t="s">
+        <v>16</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>185</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>800000000</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M5" t="s">
+        <v>138</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>185</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>800000000</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM5" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="G6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="M6" t="s">
+        <v>144</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U6" t="s">
+        <v>16</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB6" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>185</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>800000000</v>
+      </c>
+      <c r="AJ6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM6" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="M7" t="s">
+        <v>145</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U7" t="s">
+        <v>16</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>185</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>800000000</v>
+      </c>
+      <c r="AJ7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM7" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M8" t="s">
+        <v>146</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U8" t="s">
+        <v>16</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>800000000</v>
+      </c>
+      <c r="AJ8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM8" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M9" t="s">
+        <v>147</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U9" t="s">
+        <v>16</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>185</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>800000000</v>
+      </c>
+      <c r="AJ9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM9" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>31</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" t="s">
+        <v>148</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U10" t="s">
+        <v>16</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>185</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI10" s="3">
+        <v>800000000</v>
+      </c>
+      <c r="AJ10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM10" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" t="s">
+        <v>149</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U11" t="s">
+        <v>16</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>185</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI11" s="3">
+        <v>800000000</v>
+      </c>
+      <c r="AJ11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM11" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>33</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="s">
+        <v>150</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U12" t="s">
+        <v>16</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>185</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI12" s="3">
+        <v>800000000</v>
+      </c>
+      <c r="AJ12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM12" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="M13" t="s">
+        <v>151</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U13" t="s">
+        <v>16</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>185</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI13" s="3">
+        <v>800000000</v>
+      </c>
+      <c r="AJ13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM13" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>35</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="M14" t="s">
+        <v>152</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U14" t="s">
+        <v>16</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>185</v>
+      </c>
+      <c r="AF14" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH14" t="s">
         <v>41</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI14" s="3">
+        <v>800000000</v>
+      </c>
+      <c r="AJ14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AL14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AM14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="M15" t="s">
+        <v>153</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U15" t="s">
+        <v>16</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>185</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI15" s="3">
+        <v>800000000</v>
+      </c>
+      <c r="AJ15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM15" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="W2" r:id="rId1" xr:uid="{125492C3-549D-4694-A9B7-C90B4D5EACD0}"/>
+    <hyperlink ref="W3" r:id="rId2" xr:uid="{B46CB127-62D1-4992-AAE9-101BA152AAE0}"/>
+    <hyperlink ref="W4" r:id="rId3" xr:uid="{D62B7BBE-1548-4578-A213-1AEC66838394}"/>
+    <hyperlink ref="W5" r:id="rId4" xr:uid="{3229F9E5-9E38-4591-9F0A-D08B4EB0AAC7}"/>
+    <hyperlink ref="W6" r:id="rId5" xr:uid="{2682E0F8-5BCC-44DC-BDAF-35140B6ABCE6}"/>
+    <hyperlink ref="W7" r:id="rId6" xr:uid="{DF80DF08-8E9E-40A1-B7BC-0BB6A60199EE}"/>
+    <hyperlink ref="W8" r:id="rId7" xr:uid="{4C87788E-F180-4498-8552-8BB0E9142A3E}"/>
+    <hyperlink ref="W9" r:id="rId8" xr:uid="{BE92CEBC-D040-4182-96E0-E893C32ED6F6}"/>
+    <hyperlink ref="W10" r:id="rId9" xr:uid="{41BA733A-F422-486F-8F95-32ACA051F07F}"/>
+    <hyperlink ref="W11" r:id="rId10" xr:uid="{7E1755BD-BA76-40E7-8B2B-A0B18C3E1521}"/>
+    <hyperlink ref="W12" r:id="rId11" xr:uid="{312D4762-E8DC-4E94-9840-BDE7BEDE0E76}"/>
+    <hyperlink ref="W13" r:id="rId12" xr:uid="{2DE24D06-35B3-4804-892B-44514E33D718}"/>
+    <hyperlink ref="W14" r:id="rId13" xr:uid="{52117EE3-593B-4402-859F-4B7070D3C7A0}"/>
+    <hyperlink ref="W15" r:id="rId14" xr:uid="{C56D93B5-C994-4CD4-B5AA-72B990829C73}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F91CE2-444D-4B66-BAC3-0EE4D7523163}">
+  <dimension ref="A2:AM23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -810,117 +2879,2642 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U2" t="s">
+        <v>16</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>800000000</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>800000000</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" t="s">
+        <v>120</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U4" t="s">
+        <v>16</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>800000000</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M5" t="s">
+        <v>121</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>800000000</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM5" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U6" t="s">
+        <v>16</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>800000000</v>
+      </c>
+      <c r="AJ6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM6" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U7" t="s">
+        <v>16</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>800000000</v>
+      </c>
+      <c r="AJ7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM7" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="s">
+        <v>124</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U8" t="s">
+        <v>16</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>800000000</v>
+      </c>
+      <c r="AJ8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM8" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M9" t="s">
+        <v>139</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U9" t="s">
+        <v>16</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>800000000</v>
+      </c>
+      <c r="AJ9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM9" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M10" t="s">
+        <v>140</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U10" t="s">
+        <v>16</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI10" s="3">
+        <v>800000000</v>
+      </c>
+      <c r="AJ10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM10" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="M11" t="s">
+        <v>141</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U11" t="s">
+        <v>16</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI11" s="3">
+        <v>800000000</v>
+      </c>
+      <c r="AJ11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM11" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
         <v>10000</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="M12" t="s">
+        <v>142</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="R12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U12" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="P2" s="4" t="s">
+      <c r="V12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI12" s="3">
+        <v>800000000</v>
+      </c>
+      <c r="AJ12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM12" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="M13" t="s">
+        <v>125</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="Q2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="P13" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U13" t="s">
+        <v>16</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI13" s="3">
+        <v>800000000</v>
+      </c>
+      <c r="AJ13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM13" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M14" t="s">
+        <v>143</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U14" t="s">
+        <v>16</v>
+      </c>
+      <c r="V14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="W14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI14" s="3">
+        <v>800000000</v>
+      </c>
+      <c r="AJ14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM14" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M15" t="s">
+        <v>126</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U15" t="s">
+        <v>16</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI15" s="3">
+        <v>800000000</v>
+      </c>
+      <c r="AJ15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM15" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="M16" t="s">
+        <v>127</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U16" t="s">
+        <v>16</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI16" s="3">
+        <v>800000000</v>
+      </c>
+      <c r="AJ16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM16" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="M17" t="s">
+        <v>128</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U17" t="s">
+        <v>16</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI17" s="3">
+        <v>800000000</v>
+      </c>
+      <c r="AJ17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM17" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M18" t="s">
+        <v>129</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U18" t="s">
+        <v>16</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI18" s="3">
+        <v>800000000</v>
+      </c>
+      <c r="AJ18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM18" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="M19" t="s">
+        <v>130</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U19" t="s">
+        <v>16</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI19" s="3">
+        <v>800000000</v>
+      </c>
+      <c r="AJ19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM19" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M20" t="s">
+        <v>131</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U20" t="s">
+        <v>16</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W20" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI20" s="3">
+        <v>800000000</v>
+      </c>
+      <c r="AJ20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM20" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="U2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="V2" s="3" t="s">
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M21" t="s">
+        <v>132</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U21" t="s">
+        <v>16</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z21" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="X2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="AA21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE21" t="s">
         <v>34</v>
       </c>
-      <c r="AB2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="AF21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI21" s="3">
+        <v>800000000</v>
+      </c>
+      <c r="AJ21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM21" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M22" t="s">
+        <v>133</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U22" t="s">
+        <v>16</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD22" t="s">
         <v>37</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE22" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG22" t="s">
         <v>39</v>
       </c>
-      <c r="AE2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="AH22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI22" s="3">
+        <v>800000000</v>
+      </c>
+      <c r="AJ22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AG2" s="3">
+      <c r="AK22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM22" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I23" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="M23" t="s">
+        <v>134</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U23" t="s">
+        <v>16</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W23" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI23" s="3">
         <v>800000000</v>
       </c>
-      <c r="AH2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>53</v>
+      <c r="AJ23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM23" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1" xr:uid="{D85B1C92-914E-4C10-A288-C781B20BE67F}"/>
+    <hyperlink ref="W2" r:id="rId1" xr:uid="{3F54140F-6805-4726-AB28-403642768564}"/>
+    <hyperlink ref="W3" r:id="rId2" xr:uid="{6D1519E3-F32F-4D76-A6F5-F217C4129481}"/>
+    <hyperlink ref="W4" r:id="rId3" xr:uid="{9407DFB1-27D5-42F4-AB77-22BE3CAEDB28}"/>
+    <hyperlink ref="W5" r:id="rId4" xr:uid="{CC7C75FC-5757-4899-8A82-968B25BCB434}"/>
+    <hyperlink ref="W6" r:id="rId5" xr:uid="{EA34F240-DEBF-4CB0-BA92-745D7F351BB2}"/>
+    <hyperlink ref="W7" r:id="rId6" xr:uid="{918EFA66-B7FE-4EE9-A163-89DA6343814A}"/>
+    <hyperlink ref="W8" r:id="rId7" xr:uid="{AD066ABF-283C-460B-A15A-E162B20F267B}"/>
+    <hyperlink ref="W9" r:id="rId8" xr:uid="{F462FADE-48FC-4607-A0C8-D7F8FEBC9510}"/>
+    <hyperlink ref="W10" r:id="rId9" xr:uid="{C36263F2-E19B-4C38-AE99-9660AE47A447}"/>
+    <hyperlink ref="W11" r:id="rId10" xr:uid="{B9039A3E-1917-4C82-BFCB-A9EEE3158F4C}"/>
+    <hyperlink ref="W12" r:id="rId11" xr:uid="{014093F5-DB92-4D90-8D60-E025E5686523}"/>
+    <hyperlink ref="W13" r:id="rId12" xr:uid="{0E18F21E-C5A7-4398-9229-11299AC58216}"/>
+    <hyperlink ref="W14" r:id="rId13" xr:uid="{E77AA2FC-614D-4E93-A8DB-33B947989491}"/>
+    <hyperlink ref="W15" r:id="rId14" xr:uid="{7C203A19-35A3-4E4D-BBFD-792DABE1C064}"/>
+    <hyperlink ref="W16" r:id="rId15" xr:uid="{D5C6943F-0C7C-4228-AD62-8B925D9E2788}"/>
+    <hyperlink ref="W17" r:id="rId16" xr:uid="{0CCE9A9E-DBF6-4EA1-856A-0BDBD68D38A2}"/>
+    <hyperlink ref="W18" r:id="rId17" xr:uid="{C126A01F-EE78-400C-878D-9745EE949FE2}"/>
+    <hyperlink ref="W19" r:id="rId18" xr:uid="{6AB74940-E862-4FDF-B605-412BD88EB953}"/>
+    <hyperlink ref="W20" r:id="rId19" xr:uid="{D4FF408D-42BE-4579-A334-8FFC88C6C8B0}"/>
+    <hyperlink ref="W21" r:id="rId20" xr:uid="{36DE737B-7E8E-4AF2-87E0-146092B1AE04}"/>
+    <hyperlink ref="W22" r:id="rId21" xr:uid="{1D09B3F2-2AF4-41ED-929E-A952644F8488}"/>
+    <hyperlink ref="W23" r:id="rId22" xr:uid="{2FBCA636-6D03-41D7-BCB7-52FE90D2C7ED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
